--- a/Dataset/Cleaned_data.xlsx
+++ b/Dataset/Cleaned_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:G107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,40 +436,35 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Mentor_ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Mentor_ID</t>
+          <t>Mentor_Name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Mentor_Name</t>
+          <t>Mentee_Name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Mentee_Name</t>
+          <t>Session_Number</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Session_Number</t>
+          <t>Session_Duration_Min</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Session_Duration_Min</t>
+          <t>Job_Info_Completed</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Job_Info_Completed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Session_Date</t>
         </is>
@@ -477,33 +472,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B2" t="n">
         <v>1003</v>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
         <v>40</v>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
@@ -511,33 +503,30 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B3" t="n">
         <v>1003</v>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
       <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="n">
         <v>30</v>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
         <is>
           <t>2023-01-08</t>
         </is>
@@ -545,33 +534,30 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B4" t="n">
         <v>1005</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
       <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
         <v>40</v>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
         <is>
           <t>2023-01-15</t>
         </is>
@@ -579,33 +565,30 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B5" t="n">
         <v>1004</v>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
       <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
         <v>30</v>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
         <is>
           <t>2023-01-29</t>
         </is>
@@ -613,33 +596,30 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B6" t="n">
         <v>1002</v>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="n">
         <v>50</v>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
         <is>
           <t>2023-02-05</t>
         </is>
@@ -647,33 +627,30 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B7" t="n">
         <v>1002</v>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
       <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="n">
         <v>50</v>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
         <is>
           <t>2023-02-05</t>
         </is>
@@ -681,33 +658,30 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B8" t="n">
         <v>1004</v>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
       <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
         <v>40</v>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
         <is>
           <t>2023-02-12</t>
         </is>
@@ -715,33 +689,30 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B9" t="n">
         <v>1004</v>
       </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
         <v>30</v>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
         <is>
           <t>2023-02-26</t>
         </is>
@@ -749,33 +720,30 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B10" t="n">
         <v>1002</v>
       </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
       <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
         <v>40</v>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
         <is>
           <t>2023-03-05</t>
         </is>
@@ -783,33 +751,30 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B11" t="n">
         <v>1003</v>
       </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
       <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
         <v>30</v>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Maybe</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
-        <is>
-          <t>Maybe</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>2023-03-12</t>
         </is>
@@ -817,33 +782,30 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B12" t="n">
         <v>1002</v>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
       <c r="E12" t="n">
-        <v>2</v>
-      </c>
-      <c r="F12" t="n">
         <v>40</v>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
         <is>
           <t>2023-03-19</t>
         </is>
@@ -851,33 +813,30 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" t="n">
         <v>1003</v>
       </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
       <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
         <v>20</v>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
         <is>
           <t>2023-03-26</t>
         </is>
@@ -885,33 +844,30 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B14" t="n">
         <v>1005</v>
       </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
       <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
         <v>30</v>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>2023-04-02</t>
         </is>
@@ -919,33 +875,30 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B15" t="n">
         <v>1001</v>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
       <c r="E15" t="n">
-        <v>2</v>
-      </c>
-      <c r="F15" t="n">
         <v>30</v>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
         <is>
           <t>2023-04-09</t>
         </is>
@@ -953,33 +906,30 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" t="n">
         <v>1004</v>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
       <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
         <v>40</v>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
         <is>
           <t>2023-04-16</t>
         </is>
@@ -987,33 +937,30 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B17" t="n">
         <v>1003</v>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
       <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
         <v>30</v>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
@@ -1021,33 +968,30 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2006</v>
-      </c>
-      <c r="B18" t="n">
         <v>1004</v>
       </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
       <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
         <v>30</v>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
         <is>
           <t>2023-04-30</t>
         </is>
@@ -1055,33 +999,30 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B19" t="n">
         <v>1005</v>
       </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
       <c r="E19" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" t="n">
         <v>50</v>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>2023-05-07</t>
         </is>
@@ -1089,33 +1030,30 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B20" t="n">
         <v>1005</v>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
       <c r="E20" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" t="n">
         <v>50</v>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>2023-05-07</t>
         </is>
@@ -1123,33 +1061,30 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B21" t="n">
         <v>1004</v>
       </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
       <c r="E21" t="n">
-        <v>2</v>
-      </c>
-      <c r="F21" t="n">
         <v>20</v>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
         <is>
           <t>2023-05-14</t>
         </is>
@@ -1157,33 +1092,30 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B22" t="n">
         <v>1005</v>
       </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
       <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
         <v>30</v>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>2023-05-21</t>
         </is>
@@ -1191,33 +1123,30 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n">
         <v>1005</v>
       </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
       <c r="E23" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" t="n">
         <v>40</v>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
         <is>
           <t>2023-05-28</t>
         </is>
@@ -1225,33 +1154,30 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B24" t="n">
         <v>1005</v>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
       <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
         <v>20</v>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
         <is>
           <t>2023-06-04</t>
         </is>
@@ -1259,33 +1185,30 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" t="n">
         <v>1002</v>
       </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
       <c r="E25" t="n">
-        <v>2</v>
-      </c>
-      <c r="F25" t="n">
         <v>20</v>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>2023-06-11</t>
         </is>
@@ -1293,33 +1216,30 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>25</v>
-      </c>
-      <c r="B26" t="n">
         <v>1003</v>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
       <c r="E26" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" t="n">
         <v>50</v>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
         <is>
           <t>2023-06-18</t>
         </is>
@@ -1327,33 +1247,30 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B27" t="n">
         <v>1003</v>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
       <c r="E27" t="n">
-        <v>2</v>
-      </c>
-      <c r="F27" t="n">
         <v>40</v>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G27" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>2023-06-25</t>
         </is>
@@ -1361,33 +1278,30 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B28" t="n">
         <v>1002</v>
       </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
       <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
         <v>20</v>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
         <is>
           <t>2023-07-02</t>
         </is>
@@ -1395,33 +1309,30 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n">
         <v>1001</v>
       </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
       <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
         <v>20</v>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G29" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>2023-07-09</t>
         </is>
@@ -1429,33 +1340,30 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B30" t="n">
         <v>1001</v>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
       <c r="E30" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" t="n">
         <v>50</v>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
         <is>
           <t>2023-07-16</t>
         </is>
@@ -1463,33 +1371,30 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>30</v>
-      </c>
-      <c r="B31" t="n">
         <v>1003</v>
       </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
       <c r="E31" t="n">
-        <v>2</v>
-      </c>
-      <c r="F31" t="n">
         <v>40</v>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
         <is>
           <t>2023-07-23</t>
         </is>
@@ -1497,33 +1402,30 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B32" t="n">
         <v>1004</v>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D32" t="n">
+        <v>2</v>
+      </c>
       <c r="E32" t="n">
-        <v>2</v>
-      </c>
-      <c r="F32" t="n">
         <v>30</v>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
         <is>
           <t>2023-07-30</t>
         </is>
@@ -1531,33 +1433,30 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B33" t="n">
         <v>1004</v>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D33" t="n">
+        <v>2</v>
+      </c>
       <c r="E33" t="n">
-        <v>2</v>
-      </c>
-      <c r="F33" t="n">
         <v>30</v>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
         <is>
           <t>2023-08-06</t>
         </is>
@@ -1565,33 +1464,30 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B34" t="n">
         <v>1002</v>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
       <c r="E34" t="n">
-        <v>2</v>
-      </c>
-      <c r="F34" t="n">
         <v>40</v>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G34" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
         <is>
           <t>2023-08-13</t>
         </is>
@@ -1599,33 +1495,30 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>34</v>
-      </c>
-      <c r="B35" t="n">
         <v>1004</v>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D35" t="n">
+        <v>2</v>
+      </c>
       <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="n">
         <v>20</v>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G35" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
         <is>
           <t>2023-08-20</t>
         </is>
@@ -1633,33 +1526,30 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B36" t="n">
         <v>1001</v>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
       <c r="E36" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" t="n">
         <v>40</v>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
         <is>
           <t>2023-08-27</t>
         </is>
@@ -1667,33 +1557,30 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>19</v>
-      </c>
-      <c r="B37" t="n">
         <v>1005</v>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
       <c r="E37" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" t="n">
         <v>50</v>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G37" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
         <is>
           <t>2023-05-07</t>
         </is>
@@ -1701,33 +1588,30 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B38" t="n">
         <v>1002</v>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D38" t="n">
+        <v>2</v>
+      </c>
       <c r="E38" t="n">
-        <v>2</v>
-      </c>
-      <c r="F38" t="n">
         <v>40</v>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
         <is>
           <t>2023-09-03</t>
         </is>
@@ -1735,33 +1619,30 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B39" t="n">
         <v>1005</v>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D39" t="n">
+        <v>2</v>
+      </c>
       <c r="E39" t="n">
-        <v>2</v>
-      </c>
-      <c r="F39" t="n">
         <v>30</v>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G39" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
         <is>
           <t>2023-09-10</t>
         </is>
@@ -1769,33 +1650,30 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
         <v>1005</v>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D40" t="n">
+        <v>2</v>
+      </c>
       <c r="E40" t="n">
-        <v>2</v>
-      </c>
-      <c r="F40" t="n">
         <v>30</v>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G40" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
@@ -1803,33 +1681,30 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
         <v>1003</v>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
       <c r="E41" t="n">
-        <v>1</v>
-      </c>
-      <c r="F41" t="n">
         <v>30</v>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G41" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
@@ -1837,33 +1712,30 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B42" t="n">
         <v>1002</v>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
       <c r="E42" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" t="n">
         <v>20</v>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
@@ -1871,33 +1743,30 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
         <v>1003</v>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
       <c r="E43" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" t="n">
         <v>40</v>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G43" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
         <is>
           <t>2023-10-08</t>
         </is>
@@ -1905,33 +1774,30 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B44" t="n">
         <v>1003</v>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
       <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
         <v>40</v>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G44" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
         <is>
           <t>2023-10-15</t>
         </is>
@@ -1939,33 +1805,30 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B45" t="n">
         <v>1005</v>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
       <c r="E45" t="n">
-        <v>1</v>
-      </c>
-      <c r="F45" t="n">
         <v>20</v>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G45" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
         <is>
           <t>2023-10-22</t>
         </is>
@@ -1973,33 +1836,30 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
         <v>1005</v>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
       <c r="E46" t="n">
-        <v>1</v>
-      </c>
-      <c r="F46" t="n">
         <v>30</v>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G46" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
@@ -2007,33 +1867,30 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B47" t="n">
         <v>1004</v>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
       <c r="E47" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" t="n">
         <v>30</v>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
@@ -2041,33 +1898,30 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B48" t="n">
         <v>1005</v>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D48" t="n">
+        <v>2</v>
+      </c>
       <c r="E48" t="n">
-        <v>2</v>
-      </c>
-      <c r="F48" t="n">
         <v>40</v>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
         <is>
           <t>2023-11-12</t>
         </is>
@@ -2075,33 +1929,30 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B49" t="n">
         <v>1003</v>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D49" t="n">
+        <v>1</v>
+      </c>
       <c r="E49" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" t="n">
         <v>20</v>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G49" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
         <is>
           <t>2023-11-19</t>
         </is>
@@ -2109,33 +1960,30 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B50" t="n">
         <v>1001</v>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D50" t="n">
+        <v>2</v>
+      </c>
       <c r="E50" t="n">
-        <v>2</v>
-      </c>
-      <c r="F50" t="n">
         <v>20</v>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
         <is>
           <t>2023-11-26</t>
         </is>
@@ -2143,33 +1991,30 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B51" t="n">
         <v>1001</v>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
       <c r="E51" t="n">
-        <v>2</v>
-      </c>
-      <c r="F51" t="n">
         <v>40</v>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
         <is>
           <t>2023-12-03</t>
         </is>
@@ -2177,33 +2022,30 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B52" t="n">
         <v>1005</v>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D52" t="n">
+        <v>2</v>
+      </c>
       <c r="E52" t="n">
-        <v>2</v>
-      </c>
-      <c r="F52" t="n">
         <v>40</v>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
         <is>
           <t>2023-12-10</t>
         </is>
@@ -2211,33 +2053,30 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B53" t="n">
         <v>1005</v>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D53" t="n">
+        <v>2</v>
+      </c>
       <c r="E53" t="n">
-        <v>2</v>
-      </c>
-      <c r="F53" t="n">
         <v>30</v>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G53" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
         <is>
           <t>2023-12-17</t>
         </is>
@@ -2245,33 +2084,30 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B54" t="n">
         <v>1003</v>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D54" t="n">
+        <v>1</v>
+      </c>
       <c r="E54" t="n">
-        <v>1</v>
-      </c>
-      <c r="F54" t="n">
         <v>30</v>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
         <is>
           <t>2023-12-24</t>
         </is>
@@ -2279,33 +2115,30 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B55" t="n">
         <v>1004</v>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D55" t="n">
+        <v>2</v>
+      </c>
       <c r="E55" t="n">
-        <v>2</v>
-      </c>
-      <c r="F55" t="n">
         <v>40</v>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
         <is>
           <t>2023-12-31</t>
         </is>
@@ -2313,33 +2146,30 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B56" t="n">
         <v>1003</v>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
       <c r="E56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F56" t="n">
         <v>30</v>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G56" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
         <is>
           <t>2024-01-07</t>
         </is>
@@ -2347,33 +2177,30 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
         <v>1002</v>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D57" t="n">
+        <v>2</v>
+      </c>
       <c r="E57" t="n">
-        <v>2</v>
-      </c>
-      <c r="F57" t="n">
         <v>20</v>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
         <is>
           <t>2024-01-14</t>
         </is>
@@ -2381,33 +2208,30 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B58" t="n">
         <v>1001</v>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
       <c r="E58" t="n">
-        <v>1</v>
-      </c>
-      <c r="F58" t="n">
         <v>30</v>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G58" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
         <is>
           <t>2024-01-21</t>
         </is>
@@ -2415,33 +2239,30 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B59" t="n">
         <v>1004</v>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D59" t="n">
+        <v>2</v>
+      </c>
       <c r="E59" t="n">
-        <v>2</v>
-      </c>
-      <c r="F59" t="n">
         <v>30</v>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G59" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
         <is>
           <t>2024-01-28</t>
         </is>
@@ -2449,33 +2270,30 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B60" t="n">
         <v>1005</v>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
       <c r="E60" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" t="n">
         <v>40</v>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G60" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
         <is>
           <t>2024-02-04</t>
         </is>
@@ -2483,33 +2301,30 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B61" t="n">
         <v>1001</v>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
       <c r="E61" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" t="n">
         <v>20</v>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G61" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
         <is>
           <t>2024-02-11</t>
         </is>
@@ -2517,33 +2332,30 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B62" t="n">
         <v>1004</v>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
       <c r="E62" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" t="n">
         <v>50</v>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G62" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
         <is>
           <t>2024-02-18</t>
         </is>
@@ -2551,33 +2363,30 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B63" t="n">
         <v>1003</v>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D63" t="n">
+        <v>2</v>
+      </c>
       <c r="E63" t="n">
-        <v>2</v>
-      </c>
-      <c r="F63" t="n">
         <v>20</v>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G63" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
         <is>
           <t>2024-02-25</t>
         </is>
@@ -2585,33 +2394,30 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
         <v>1005</v>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
       <c r="E64" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" t="n">
         <v>20</v>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
         <is>
           <t>2024-03-03</t>
         </is>
@@ -2619,33 +2425,30 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B65" t="n">
         <v>1001</v>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
       <c r="E65" t="n">
-        <v>2</v>
-      </c>
-      <c r="F65" t="n">
         <v>50</v>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
         <is>
           <t>2024-03-10</t>
         </is>
@@ -2653,33 +2456,30 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
         <v>1001</v>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D66" t="n">
+        <v>2</v>
+      </c>
       <c r="E66" t="n">
-        <v>2</v>
-      </c>
-      <c r="F66" t="n">
         <v>30</v>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
         <is>
           <t>2024-03-17</t>
         </is>
@@ -2687,33 +2487,30 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
         <v>1005</v>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
       <c r="E67" t="n">
-        <v>1</v>
-      </c>
-      <c r="F67" t="n">
         <v>40</v>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
         <is>
           <t>2024-03-24</t>
         </is>
@@ -2721,33 +2518,30 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B68" t="n">
         <v>1001</v>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D68" t="n">
+        <v>2</v>
+      </c>
       <c r="E68" t="n">
-        <v>2</v>
-      </c>
-      <c r="F68" t="n">
         <v>20</v>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
         <is>
           <t>2024-03-31</t>
         </is>
@@ -2755,33 +2549,30 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B69" t="n">
         <v>1004</v>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D69" t="n">
+        <v>1</v>
+      </c>
       <c r="E69" t="n">
-        <v>1</v>
-      </c>
-      <c r="F69" t="n">
         <v>20</v>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
         <is>
           <t>2024-04-07</t>
         </is>
@@ -2789,33 +2580,30 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
         <v>1002</v>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D70" t="n">
+        <v>1</v>
+      </c>
       <c r="E70" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" t="n">
         <v>50</v>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
         <is>
           <t>2024-04-14</t>
         </is>
@@ -2823,33 +2611,30 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B71" t="n">
         <v>1004</v>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D71" t="n">
+        <v>1</v>
+      </c>
       <c r="E71" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" t="n">
         <v>30</v>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
         <is>
           <t>2024-04-21</t>
         </is>
@@ -2857,33 +2642,30 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
         <v>1003</v>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
       <c r="E72" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" t="n">
         <v>20</v>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G72" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
         <is>
           <t>2024-04-28</t>
         </is>
@@ -2891,33 +2673,30 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
         <v>1005</v>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D73" t="n">
+        <v>1</v>
+      </c>
       <c r="E73" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" t="n">
         <v>50</v>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G73" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
         <is>
           <t>2024-05-05</t>
         </is>
@@ -2925,33 +2704,30 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B74" t="n">
         <v>1004</v>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D74" t="n">
+        <v>1</v>
+      </c>
       <c r="E74" t="n">
-        <v>1</v>
-      </c>
-      <c r="F74" t="n">
         <v>50</v>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G74" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
         <is>
           <t>2024-05-12</t>
         </is>
@@ -2959,33 +2735,30 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B75" t="n">
         <v>1005</v>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D75" t="n">
+        <v>1</v>
+      </c>
       <c r="E75" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" t="n">
         <v>30</v>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
         <is>
           <t>2024-05-19</t>
         </is>
@@ -2993,33 +2766,30 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="n">
         <v>1004</v>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D76" t="n">
+        <v>1</v>
+      </c>
       <c r="E76" t="n">
-        <v>1</v>
-      </c>
-      <c r="F76" t="n">
         <v>30</v>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
         <is>
           <t>2024-05-26</t>
         </is>
@@ -3027,33 +2797,30 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="n">
         <v>1001</v>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D77" t="n">
+        <v>1</v>
+      </c>
       <c r="E77" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" t="n">
         <v>40</v>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G77" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
         <is>
           <t>2024-06-02</t>
         </is>
@@ -3061,33 +2828,30 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B78" t="n">
         <v>1004</v>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D78" t="n">
+        <v>2</v>
+      </c>
       <c r="E78" t="n">
-        <v>2</v>
-      </c>
-      <c r="F78" t="n">
         <v>40</v>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G78" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
         <is>
           <t>2024-06-09</t>
         </is>
@@ -3095,33 +2859,30 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B79" t="n">
         <v>1001</v>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D79" t="n">
+        <v>2</v>
+      </c>
       <c r="E79" t="n">
-        <v>2</v>
-      </c>
-      <c r="F79" t="n">
         <v>30</v>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G79" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
         <is>
           <t>2024-06-16</t>
         </is>
@@ -3129,33 +2890,30 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B80" t="n">
         <v>1004</v>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D80" t="n">
+        <v>1</v>
+      </c>
       <c r="E80" t="n">
-        <v>1</v>
-      </c>
-      <c r="F80" t="n">
         <v>20</v>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
         <is>
           <t>2024-06-23</t>
         </is>
@@ -3163,33 +2921,30 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B81" t="n">
         <v>1003</v>
       </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
       <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="n">
         <v>20</v>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
         <is>
           <t>2024-06-30</t>
         </is>
@@ -3197,33 +2952,30 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="n">
         <v>1002</v>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
       <c r="E82" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" t="n">
         <v>20</v>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
         <is>
           <t>2024-07-07</t>
         </is>
@@ -3231,33 +2983,30 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B83" t="n">
         <v>1002</v>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
       <c r="E83" t="n">
-        <v>2</v>
-      </c>
-      <c r="F83" t="n">
         <v>50</v>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G83" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
         <is>
           <t>2024-07-14</t>
         </is>
@@ -3265,33 +3014,30 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B84" t="n">
         <v>1005</v>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
       <c r="E84" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" t="n">
         <v>20</v>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G84" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
         <is>
           <t>2024-07-21</t>
         </is>
@@ -3299,33 +3045,30 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B85" t="n">
         <v>1002</v>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
       <c r="E85" t="n">
-        <v>1</v>
-      </c>
-      <c r="F85" t="n">
         <v>50</v>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G85" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
         <is>
           <t>2024-07-28</t>
         </is>
@@ -3333,33 +3076,30 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
         <v>1003</v>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D86" t="n">
+        <v>2</v>
+      </c>
       <c r="E86" t="n">
-        <v>2</v>
-      </c>
-      <c r="F86" t="n">
         <v>20</v>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G86" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
         <is>
           <t>2024-08-04</t>
         </is>
@@ -3367,33 +3107,30 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
         <v>1004</v>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D87" t="n">
+        <v>1</v>
+      </c>
       <c r="E87" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" t="n">
         <v>40</v>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G87" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
         <is>
           <t>2024-08-11</t>
         </is>
@@ -3401,33 +3138,30 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2005</v>
-      </c>
-      <c r="B88" t="n">
         <v>1004</v>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
       <c r="E88" t="n">
-        <v>2</v>
-      </c>
-      <c r="F88" t="n">
         <v>30</v>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G88" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
         <is>
           <t>2024-08-18</t>
         </is>
@@ -3435,33 +3169,30 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B89" t="n">
         <v>1001</v>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D89" t="n">
+        <v>2</v>
+      </c>
       <c r="E89" t="n">
-        <v>2</v>
-      </c>
-      <c r="F89" t="n">
         <v>20</v>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G89" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
         <is>
           <t>2024-08-25</t>
         </is>
@@ -3469,33 +3200,30 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B90" t="n">
         <v>1005</v>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>David Thompson</t>
+        </is>
+      </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>David Thompson</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
       <c r="E90" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" t="n">
         <v>30</v>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
         <is>
           <t>2024-09-01</t>
         </is>
@@ -3503,33 +3231,30 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
         <v>1004</v>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D91" t="n">
+        <v>2</v>
+      </c>
       <c r="E91" t="n">
-        <v>2</v>
-      </c>
-      <c r="F91" t="n">
         <v>20</v>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G91" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
         <is>
           <t>2024-09-08</t>
         </is>
@@ -3537,33 +3262,30 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
         <v>1003</v>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D92" t="n">
+        <v>2</v>
+      </c>
       <c r="E92" t="n">
-        <v>2</v>
-      </c>
-      <c r="F92" t="n">
         <v>50</v>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G92" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
         <is>
           <t>2024-09-15</t>
         </is>
@@ -3571,33 +3293,30 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B93" t="n">
         <v>1003</v>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Sarah Clark</t>
+        </is>
+      </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sarah Clark</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D93" t="n">
+        <v>2</v>
+      </c>
       <c r="E93" t="n">
-        <v>2</v>
-      </c>
-      <c r="F93" t="n">
         <v>20</v>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G93" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr">
         <is>
           <t>2024-09-22</t>
         </is>
@@ -3605,33 +3324,30 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B94" t="n">
         <v>1005</v>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
       <c r="E94" t="n">
-        <v>2</v>
-      </c>
-      <c r="F94" t="n">
         <v>40</v>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G94" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
         <is>
           <t>2024-09-29</t>
         </is>
@@ -3639,33 +3355,30 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B95" t="n">
         <v>1003</v>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D95" t="n">
+        <v>2</v>
+      </c>
       <c r="E95" t="n">
-        <v>2</v>
-      </c>
-      <c r="F95" t="n">
         <v>20</v>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G95" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
         <is>
           <t>2024-10-06</t>
         </is>
@@ -3673,33 +3386,30 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B96" t="n">
         <v>1004</v>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>James Wilson</t>
+        </is>
+      </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>James Wilson</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D96" t="n">
+        <v>1</v>
+      </c>
       <c r="E96" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" t="n">
         <v>20</v>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G96" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
         <is>
           <t>2024-10-13</t>
         </is>
@@ -3707,33 +3417,30 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B97" t="n">
         <v>1001</v>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Emily Davis</t>
+        </is>
+      </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Emily Davis</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D97" t="n">
+        <v>2</v>
+      </c>
       <c r="E97" t="n">
-        <v>2</v>
-      </c>
-      <c r="F97" t="n">
         <v>50</v>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G97" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
         <is>
           <t>2024-10-20</t>
         </is>
@@ -3741,33 +3448,30 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
         <v>1004</v>
       </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D98" t="n">
+        <v>1</v>
+      </c>
       <c r="E98" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" t="n">
         <v>20</v>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G98" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr">
         <is>
           <t>2024-10-27</t>
         </is>
@@ -3775,33 +3479,30 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B99" t="n">
         <v>1004</v>
       </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
       <c r="E99" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" t="n">
         <v>50</v>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G99" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
         <is>
           <t>2024-11-03</t>
         </is>
@@ -3809,33 +3510,30 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
         <v>1001</v>
       </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
           <t>John Doe</t>
         </is>
       </c>
+      <c r="D100" t="n">
+        <v>1</v>
+      </c>
       <c r="E100" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" t="n">
         <v>40</v>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G100" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr">
         <is>
           <t>2024-11-10</t>
         </is>
@@ -3843,33 +3541,30 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2001</v>
-      </c>
-      <c r="B101" t="n">
         <v>1003</v>
       </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
           <t>Bob Brown</t>
         </is>
       </c>
+      <c r="D101" t="n">
+        <v>1</v>
+      </c>
       <c r="E101" t="n">
-        <v>1</v>
-      </c>
-      <c r="F101" t="n">
         <v>20</v>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G101" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr">
         <is>
           <t>2024-11-17</t>
         </is>
@@ -3877,33 +3572,30 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
         <v>1001</v>
       </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D102" t="n">
+        <v>2</v>
+      </c>
       <c r="E102" t="n">
-        <v>2</v>
-      </c>
-      <c r="F102" t="n">
         <v>20</v>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G102" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
         <is>
           <t>2024-11-24</t>
         </is>
@@ -3911,33 +3603,30 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2002</v>
-      </c>
-      <c r="B103" t="n">
         <v>1003</v>
       </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D103" t="n">
+        <v>2</v>
+      </c>
       <c r="E103" t="n">
-        <v>2</v>
-      </c>
-      <c r="F103" t="n">
         <v>20</v>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G103" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr">
         <is>
           <t>2024-08-04</t>
         </is>
@@ -3945,33 +3634,30 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>54</v>
-      </c>
-      <c r="B104" t="n">
         <v>1003</v>
       </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
           <t>Alice Johnson</t>
         </is>
       </c>
+      <c r="D104" t="n">
+        <v>2</v>
+      </c>
       <c r="E104" t="n">
-        <v>2</v>
-      </c>
-      <c r="F104" t="n">
         <v>30</v>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr">
         <is>
           <t>2024-01-07</t>
         </is>
@@ -3979,33 +3665,30 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2003</v>
-      </c>
-      <c r="B105" t="n">
         <v>1005</v>
       </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D105" t="n">
+        <v>1</v>
+      </c>
       <c r="E105" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" t="n">
         <v>50</v>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G105" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
         <is>
           <t>2024-05-05</t>
         </is>
@@ -4013,33 +3696,30 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>46</v>
-      </c>
-      <c r="B106" t="n">
         <v>1005</v>
       </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
           <t>Carol White</t>
         </is>
       </c>
+      <c r="D106" t="n">
+        <v>2</v>
+      </c>
       <c r="E106" t="n">
-        <v>2</v>
-      </c>
-      <c r="F106" t="n">
         <v>40</v>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="G106" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="H106" t="inlineStr">
         <is>
           <t>2023-11-12</t>
         </is>
@@ -4047,33 +3727,30 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>45</v>
-      </c>
-      <c r="B107" t="n">
         <v>1004</v>
       </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Michael Lee</t>
+        </is>
+      </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Michael Lee</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
           <t>Jane Smith</t>
         </is>
       </c>
+      <c r="D107" t="n">
+        <v>1</v>
+      </c>
       <c r="E107" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" t="n">
         <v>30</v>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
